--- a/connections.xlsx
+++ b/connections.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_SYSTER_Ildar_DAMINOV\Australie\Literature_review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ireena\Documents\GitHub\SYSTER_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7883,18 +7883,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -7929,7 +7923,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8237,13 +8231,15 @@
   <dimension ref="A1:I706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="77.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
